--- a/supportFiles/xlsxFiles/FuFarmHelpPage.xlsx
+++ b/supportFiles/xlsxFiles/FuFarmHelpPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry.Nahliuk\Pictures\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Frameworks\simpleApp\supportFiles\xlsxFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{032DFBEC-D021-40ED-9F16-2BAA344613D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7658C-1D17-42A8-964F-7A2FB7C5929D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{FC0B197B-AFD9-46E8-86E9-4EA6BAF3EDC5}"/>
+    <workbookView xWindow="-28920" yWindow="-2475" windowWidth="29040" windowHeight="15840" xr2:uid="{FC0B197B-AFD9-46E8-86E9-4EA6BAF3EDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>Fu Farm/ Fu Farm JP</t>
   </si>
@@ -384,6 +384,60 @@
       </rPr>
       <t>nl</t>
     </r>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>zh-tw</t>
   </si>
 </sst>
 </file>
@@ -604,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -687,6 +741,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -709,7 +776,7 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -717,9 +784,6 @@
     <xf numFmtId="49" fontId="16" fillId="9" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -732,9 +796,6 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -758,6 +819,24 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1087,178 +1166,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196DF35A-70A8-435D-BC21-6C0972088354}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
-    <col min="8" max="8" width="56.77734375" customWidth="1"/>
-    <col min="9" max="9" width="53.109375" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" customWidth="1"/>
+    <col min="9" max="9" width="53.140625" customWidth="1"/>
     <col min="10" max="10" width="49" customWidth="1"/>
-    <col min="11" max="11" width="51.77734375" customWidth="1"/>
-    <col min="12" max="12" width="43.77734375" customWidth="1"/>
-    <col min="13" max="13" width="50.33203125" customWidth="1"/>
-    <col min="14" max="14" width="48.77734375" customWidth="1"/>
-    <col min="15" max="15" width="56.109375" customWidth="1"/>
-    <col min="16" max="16" width="61.21875" customWidth="1"/>
-    <col min="17" max="17" width="53.109375" customWidth="1"/>
-    <col min="18" max="18" width="35.6640625" customWidth="1"/>
-    <col min="19" max="19" width="50.88671875" customWidth="1"/>
-    <col min="20" max="20" width="47.6640625" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" customWidth="1"/>
+    <col min="13" max="13" width="50.28515625" customWidth="1"/>
+    <col min="14" max="14" width="48.7109375" customWidth="1"/>
+    <col min="15" max="15" width="56.140625" customWidth="1"/>
+    <col min="16" max="16" width="61.28515625" customWidth="1"/>
+    <col min="17" max="17" width="53.140625" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" customWidth="1"/>
+    <col min="19" max="19" width="50.85546875" customWidth="1"/>
+    <col min="20" max="20" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:20" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T4" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
